--- a/materiais/acidentes/Tracado Via.xlsx
+++ b/materiais/acidentes/Tracado Via.xlsx
@@ -20,9 +20,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
-  <si>
-    <t xml:space="preserve">tracado_via</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+  <si>
+    <t xml:space="preserve">Cruzamento</t>
   </si>
   <si>
     <t xml:space="preserve">Curva                         </t>
@@ -32,6 +32,9 @@
   </si>
   <si>
     <t xml:space="preserve">Interseção de vias            </t>
+  </si>
+  <si>
+    <t xml:space="preserve">n/a</t>
   </si>
   <si>
     <t xml:space="preserve">Não Informado                 </t>
@@ -62,11 +65,12 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="5">
+  <fonts count="4">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -82,12 +86,6 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="0"/>
-    </font>
-    <font>
-      <b val="true"/>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -132,12 +130,8 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="1">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -158,20 +152,20 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:A11"/>
+  <dimension ref="A1:A12"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A5" activeCellId="0" sqref="A5"/>
+      <selection pane="topLeft" activeCell="A5" activeCellId="0" sqref="5:5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="25.88"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="25.87"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="2" style="0" width="11.52"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="0" t="s">
         <v>0</v>
       </c>
     </row>
@@ -223,6 +217,11 @@
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
         <v>10</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="0" t="s">
+        <v>11</v>
       </c>
     </row>
   </sheetData>
